--- a/data/PFAS synonyms.xlsx
+++ b/data/PFAS synonyms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/judson_richard_epa_gov/Documents/Profile/Documents/Papers/331 PFAS Biomonitoring/pfasBiomon/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjudson\OneDrive - Environmental Protection Agency (EPA)\Profile\Documents\Papers\331 PFAS Biomonitoring\pfasBiomon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{E3E06B67-DDEA-4E42-AB06-202401AAC9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{244124A9-48F3-4E7E-8F7B-EBEAB939AEA9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C4B36-0746-4316-8F0C-1865AC7EBE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26910" windowHeight="16440" tabRatio="229" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="2910" windowWidth="27360" windowHeight="10200" tabRatio="229" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet1" sheetId="1" r:id="rId1"/>
@@ -3153,21 +3153,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="57.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>604</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>862</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>209</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>269</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>367</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>634</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>644</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>117</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>867</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>626</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>468</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>617</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>859</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>900</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>895</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>611</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>340</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>850</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>888</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>883</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>868</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>633</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>616</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>628</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>854</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>889</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>844</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>618</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>337</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>869</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>441</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>879</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>858</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>464</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>636</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>884</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>845</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>365</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>876</v>
       </c>
@@ -3976,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>902</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>45</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>641</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>448</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>881</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>896</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>874</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>509</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>627</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>898</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>893</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>873</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>886</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>625</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>643</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>624</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>607</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>890</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>642</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>878</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>466</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>621</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>861</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>877</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>891</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>872</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>897</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -4456,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>227</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>320</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>374</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>385</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>43</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>852</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>730</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>851</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>864</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>62</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>848</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>139</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>638</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>632</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>903</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>487</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>635</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>846</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>853</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>857</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>843</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>646</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>619</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>288</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>610</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>408</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>630</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>437</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>137</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>856</v>
       </c>
@@ -4996,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>444</v>
       </c>
@@ -5011,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>458</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>462</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>478</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>901</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>513</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>882</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>849</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>904</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>631</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>620</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>612</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>171</v>
       </c>
@@ -5191,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>207</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -5236,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>332</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>417</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>645</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>123</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>492</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>622</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>860</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>880</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>254</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>284</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>48</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>52</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>60</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>623</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>639</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>866</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>87</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>101</v>
       </c>
@@ -5611,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>125</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>894</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>143</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>887</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>640</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>892</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>899</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>875</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>871</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>629</v>
       </c>
@@ -5761,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>863</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>613</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>865</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>615</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>383</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>414</v>
       </c>
@@ -5851,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>72</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>637</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>446</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>451</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>885</v>
       </c>
@@ -5926,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>847</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>614</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>870</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>855</v>
       </c>
@@ -5988,6 +5989,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D188" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="PFTriDA"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D188">
       <sortCondition ref="A1:A188"/>
     </sortState>
@@ -6019,14 +6025,14 @@
       <selection pane="bottomLeft" activeCell="A82" sqref="A2:B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="132.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="132.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>516</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -6048,7 +6054,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -6059,7 +6065,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -6081,7 +6087,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>479</v>
       </c>
@@ -6092,7 +6098,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>375</v>
       </c>
@@ -6103,7 +6109,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>295</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -6125,7 +6131,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>510</v>
       </c>
@@ -6136,7 +6142,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>289</v>
       </c>
@@ -6147,7 +6153,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>368</v>
       </c>
@@ -6158,7 +6164,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>465</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -6180,7 +6186,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -6191,7 +6197,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -6213,7 +6219,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>338</v>
       </c>
@@ -6224,7 +6230,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>415</v>
       </c>
@@ -6235,7 +6241,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -6246,7 +6252,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -6257,7 +6263,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>384</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>386</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>255</v>
       </c>
@@ -6290,7 +6296,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>140</v>
       </c>
@@ -6301,7 +6307,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -6312,7 +6318,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -6323,7 +6329,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>210</v>
       </c>
@@ -6334,7 +6340,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>463</v>
       </c>
@@ -6345,7 +6351,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>270</v>
       </c>
@@ -6367,7 +6373,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>372</v>
       </c>
@@ -6378,7 +6384,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>459</v>
       </c>
@@ -6389,7 +6395,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>341</v>
       </c>
@@ -6422,7 +6428,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>493</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>449</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>452</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>445</v>
       </c>
@@ -6477,7 +6483,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -6488,7 +6494,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>228</v>
       </c>
@@ -6499,7 +6505,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>418</v>
       </c>
@@ -6510,7 +6516,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -6521,7 +6527,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -6532,7 +6538,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -6543,7 +6549,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -6565,7 +6571,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -6576,7 +6582,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -6587,7 +6593,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -6598,7 +6604,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>442</v>
       </c>
@@ -6609,7 +6615,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -6620,7 +6626,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>514</v>
       </c>
@@ -6631,7 +6637,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -6642,7 +6648,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -6653,7 +6659,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -6664,7 +6670,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -6686,7 +6692,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>147</v>
       </c>
@@ -6697,7 +6703,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>409</v>
       </c>
@@ -6708,7 +6714,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>208</v>
       </c>
@@ -6719,7 +6725,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -6730,7 +6736,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -6741,7 +6747,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -6752,7 +6758,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -6763,7 +6769,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>469</v>
       </c>
@@ -6774,7 +6780,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>467</v>
       </c>
@@ -6785,7 +6791,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -6796,7 +6802,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>169</v>
       </c>
@@ -6807,7 +6813,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -6829,7 +6835,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -6840,7 +6846,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>366</v>
       </c>
@@ -6851,7 +6857,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>130</v>
       </c>
@@ -6862,7 +6868,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -6873,7 +6879,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -6884,7 +6890,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>447</v>
       </c>
@@ -6895,7 +6901,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -6906,7 +6912,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -6917,7 +6923,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -6936,7 +6942,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -6952,7 +6958,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -6960,7 +6966,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -6968,7 +6974,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -6976,7 +6982,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -6984,7 +6990,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -6992,7 +6998,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -7000,7 +7006,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -7008,7 +7014,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>56</v>
       </c>
@@ -7016,7 +7022,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>57</v>
       </c>
@@ -7024,7 +7030,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -7032,7 +7038,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -7040,7 +7046,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>64</v>
       </c>
@@ -7048,7 +7054,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>65</v>
       </c>
@@ -7056,7 +7062,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>66</v>
       </c>
@@ -7064,7 +7070,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>67</v>
       </c>
@@ -7072,7 +7078,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>71</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -7096,7 +7102,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>75</v>
       </c>
@@ -7104,7 +7110,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>77</v>
       </c>
@@ -7120,7 +7126,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>78</v>
       </c>
@@ -7128,7 +7134,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -7136,7 +7142,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>80</v>
       </c>
@@ -7144,7 +7150,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>82</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -7168,7 +7174,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>86</v>
       </c>
@@ -7176,7 +7182,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>91</v>
       </c>
@@ -7184,7 +7190,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -7192,7 +7198,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>93</v>
       </c>
@@ -7200,7 +7206,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>94</v>
       </c>
@@ -7208,7 +7214,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>95</v>
       </c>
@@ -7216,7 +7222,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -7224,7 +7230,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>97</v>
       </c>
@@ -7232,7 +7238,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>100</v>
       </c>
@@ -7240,7 +7246,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>103</v>
       </c>
@@ -7248,7 +7254,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>104</v>
       </c>
@@ -7256,7 +7262,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>105</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>106</v>
       </c>
@@ -7272,7 +7278,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>107</v>
       </c>
@@ -7280,7 +7286,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>108</v>
       </c>
@@ -7288,7 +7294,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>109</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>110</v>
       </c>
@@ -7304,7 +7310,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>111</v>
       </c>
@@ -7312,7 +7318,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>112</v>
       </c>
@@ -7320,7 +7326,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>113</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>114</v>
       </c>
@@ -7336,7 +7342,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>115</v>
       </c>
@@ -7344,7 +7350,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>116</v>
       </c>
@@ -7352,7 +7358,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>119</v>
       </c>
@@ -7360,7 +7366,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>122</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>124</v>
       </c>
@@ -7376,7 +7382,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -7384,7 +7390,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -7392,7 +7398,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>133</v>
       </c>
@@ -7400,7 +7406,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -7408,7 +7414,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -7416,7 +7422,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -7424,7 +7430,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -7432,7 +7438,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -7440,7 +7446,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -7448,7 +7454,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -7456,7 +7462,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -7464,7 +7470,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -7472,7 +7478,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -7496,7 +7502,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -7504,7 +7510,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -7512,7 +7518,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -7520,7 +7526,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>162</v>
       </c>
@@ -7536,7 +7542,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -7544,7 +7550,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -7552,7 +7558,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>165</v>
       </c>
@@ -7560,7 +7566,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>166</v>
       </c>
@@ -7568,7 +7574,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>167</v>
       </c>
@@ -7576,7 +7582,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -7584,7 +7590,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -7592,7 +7598,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -7608,7 +7614,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -7616,7 +7622,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -7624,7 +7630,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -7632,7 +7638,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -7648,7 +7654,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -7656,7 +7662,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -7664,7 +7670,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -7672,7 +7678,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -7680,7 +7686,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -7688,7 +7694,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -7696,7 +7702,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -7712,7 +7718,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>189</v>
       </c>
@@ -7720,7 +7726,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>192</v>
       </c>
@@ -7728,7 +7734,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>193</v>
       </c>
@@ -7736,7 +7742,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>194</v>
       </c>
@@ -7744,7 +7750,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>195</v>
       </c>
@@ -7752,7 +7758,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>196</v>
       </c>
@@ -7760,7 +7766,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>197</v>
       </c>
@@ -7768,7 +7774,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>198</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>199</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>200</v>
       </c>
@@ -7792,7 +7798,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>201</v>
       </c>
@@ -7800,7 +7806,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>202</v>
       </c>
@@ -7808,7 +7814,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>203</v>
       </c>
@@ -7816,7 +7822,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -7832,7 +7838,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -7840,7 +7846,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -7856,7 +7862,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -7864,7 +7870,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -7872,7 +7878,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -7888,7 +7894,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -7896,7 +7902,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -7904,7 +7910,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -7912,7 +7918,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -7920,7 +7926,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -7928,7 +7934,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -7936,7 +7942,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -7944,7 +7950,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -7952,7 +7958,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>229</v>
       </c>
@@ -7960,7 +7966,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>230</v>
       </c>
@@ -7968,7 +7974,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>231</v>
       </c>
@@ -7976,7 +7982,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>232</v>
       </c>
@@ -7984,7 +7990,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>233</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>234</v>
       </c>
@@ -8000,7 +8006,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>235</v>
       </c>
@@ -8008,7 +8014,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>236</v>
       </c>
@@ -8016,7 +8022,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>237</v>
       </c>
@@ -8024,7 +8030,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>238</v>
       </c>
@@ -8032,7 +8038,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>239</v>
       </c>
@@ -8040,7 +8046,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>240</v>
       </c>
@@ -8048,7 +8054,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>241</v>
       </c>
@@ -8056,7 +8062,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>242</v>
       </c>
@@ -8064,7 +8070,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>243</v>
       </c>
@@ -8072,7 +8078,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>244</v>
       </c>
@@ -8080,7 +8086,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>245</v>
       </c>
@@ -8088,7 +8094,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -8096,7 +8102,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>247</v>
       </c>
@@ -8104,7 +8110,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>248</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>249</v>
       </c>
@@ -8120,7 +8126,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>250</v>
       </c>
@@ -8128,7 +8134,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>251</v>
       </c>
@@ -8136,7 +8142,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>252</v>
       </c>
@@ -8144,7 +8150,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>253</v>
       </c>
@@ -8152,7 +8158,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>256</v>
       </c>
@@ -8160,7 +8166,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>257</v>
       </c>
@@ -8168,7 +8174,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>258</v>
       </c>
@@ -8176,7 +8182,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>259</v>
       </c>
@@ -8184,7 +8190,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>260</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>261</v>
       </c>
@@ -8200,7 +8206,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>262</v>
       </c>
@@ -8208,7 +8214,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>263</v>
       </c>
@@ -8216,7 +8222,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>264</v>
       </c>
@@ -8224,7 +8230,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>265</v>
       </c>
@@ -8232,7 +8238,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>266</v>
       </c>
@@ -8240,7 +8246,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>267</v>
       </c>
@@ -8248,7 +8254,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>268</v>
       </c>
@@ -8256,7 +8262,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>271</v>
       </c>
@@ -8264,7 +8270,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>272</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>273</v>
       </c>
@@ -8280,7 +8286,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>274</v>
       </c>
@@ -8288,7 +8294,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>275</v>
       </c>
@@ -8296,7 +8302,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>276</v>
       </c>
@@ -8304,7 +8310,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>277</v>
       </c>
@@ -8312,7 +8318,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>278</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>279</v>
       </c>
@@ -8328,7 +8334,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>280</v>
       </c>
@@ -8336,7 +8342,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>281</v>
       </c>
@@ -8344,7 +8350,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>282</v>
       </c>
@@ -8352,7 +8358,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>283</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>286</v>
       </c>
@@ -8368,7 +8374,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>287</v>
       </c>
@@ -8376,7 +8382,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>290</v>
       </c>
@@ -8384,7 +8390,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>291</v>
       </c>
@@ -8392,7 +8398,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>292</v>
       </c>
@@ -8400,7 +8406,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -8408,7 +8414,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>296</v>
       </c>
@@ -8416,7 +8422,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>297</v>
       </c>
@@ -8424,7 +8430,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>298</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>299</v>
       </c>
@@ -8440,7 +8446,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>300</v>
       </c>
@@ -8448,7 +8454,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>301</v>
       </c>
@@ -8456,7 +8462,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>302</v>
       </c>
@@ -8464,7 +8470,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>303</v>
       </c>
@@ -8472,7 +8478,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>304</v>
       </c>
@@ -8480,7 +8486,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>305</v>
       </c>
@@ -8488,7 +8494,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>306</v>
       </c>
@@ -8496,7 +8502,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>307</v>
       </c>
@@ -8504,7 +8510,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>308</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>309</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>310</v>
       </c>
@@ -8528,7 +8534,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>311</v>
       </c>
@@ -8536,7 +8542,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>312</v>
       </c>
@@ -8544,7 +8550,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>313</v>
       </c>
@@ -8552,7 +8558,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>314</v>
       </c>
@@ -8560,7 +8566,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>315</v>
       </c>
@@ -8568,7 +8574,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>316</v>
       </c>
@@ -8576,7 +8582,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>317</v>
       </c>
@@ -8584,7 +8590,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>318</v>
       </c>
@@ -8592,7 +8598,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>319</v>
       </c>
@@ -8600,7 +8606,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>321</v>
       </c>
@@ -8608,7 +8614,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>322</v>
       </c>
@@ -8616,7 +8622,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>323</v>
       </c>
@@ -8624,7 +8630,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>324</v>
       </c>
@@ -8632,7 +8638,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>325</v>
       </c>
@@ -8640,7 +8646,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>326</v>
       </c>
@@ -8648,7 +8654,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>327</v>
       </c>
@@ -8656,7 +8662,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>328</v>
       </c>
@@ -8664,7 +8670,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>329</v>
       </c>
@@ -8672,7 +8678,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>330</v>
       </c>
@@ -8680,7 +8686,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>331</v>
       </c>
@@ -8688,7 +8694,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>334</v>
       </c>
@@ -8696,7 +8702,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>335</v>
       </c>
@@ -8704,7 +8710,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>336</v>
       </c>
@@ -8712,7 +8718,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>339</v>
       </c>
@@ -8720,7 +8726,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>342</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>343</v>
       </c>
@@ -8736,7 +8742,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>344</v>
       </c>
@@ -8744,7 +8750,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>345</v>
       </c>
@@ -8752,7 +8758,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>346</v>
       </c>
@@ -8760,7 +8766,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>347</v>
       </c>
@@ -8768,7 +8774,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>348</v>
       </c>
@@ -8776,7 +8782,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>349</v>
       </c>
@@ -8784,7 +8790,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>350</v>
       </c>
@@ -8792,7 +8798,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>351</v>
       </c>
@@ -8800,7 +8806,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>352</v>
       </c>
@@ -8808,7 +8814,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>353</v>
       </c>
@@ -8816,7 +8822,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>354</v>
       </c>
@@ -8824,7 +8830,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>355</v>
       </c>
@@ -8832,7 +8838,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>356</v>
       </c>
@@ -8840,7 +8846,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>357</v>
       </c>
@@ -8848,7 +8854,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>358</v>
       </c>
@@ -8856,7 +8862,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>359</v>
       </c>
@@ -8864,7 +8870,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>360</v>
       </c>
@@ -8872,7 +8878,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>361</v>
       </c>
@@ -8880,7 +8886,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>362</v>
       </c>
@@ -8888,7 +8894,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>363</v>
       </c>
@@ -8896,7 +8902,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>364</v>
       </c>
@@ -8904,7 +8910,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>369</v>
       </c>
@@ -8912,7 +8918,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>370</v>
       </c>
@@ -8920,7 +8926,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>373</v>
       </c>
@@ -8928,7 +8934,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>376</v>
       </c>
@@ -8936,7 +8942,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>377</v>
       </c>
@@ -8944,7 +8950,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>378</v>
       </c>
@@ -8952,7 +8958,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>379</v>
       </c>
@@ -8960,7 +8966,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>380</v>
       </c>
@@ -8968,7 +8974,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>381</v>
       </c>
@@ -8976,7 +8982,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>382</v>
       </c>
@@ -8984,7 +8990,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>387</v>
       </c>
@@ -8992,7 +8998,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>388</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>389</v>
       </c>
@@ -9008,7 +9014,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>390</v>
       </c>
@@ -9016,7 +9022,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>391</v>
       </c>
@@ -9024,7 +9030,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>392</v>
       </c>
@@ -9032,7 +9038,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>393</v>
       </c>
@@ -9040,7 +9046,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>394</v>
       </c>
@@ -9048,7 +9054,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>395</v>
       </c>
@@ -9056,7 +9062,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>396</v>
       </c>
@@ -9064,7 +9070,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>397</v>
       </c>
@@ -9072,7 +9078,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>398</v>
       </c>
@@ -9080,7 +9086,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>399</v>
       </c>
@@ -9088,7 +9094,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>400</v>
       </c>
@@ -9096,7 +9102,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>401</v>
       </c>
@@ -9104,7 +9110,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>402</v>
       </c>
@@ -9112,7 +9118,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>403</v>
       </c>
@@ -9120,7 +9126,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>404</v>
       </c>
@@ -9128,7 +9134,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>405</v>
       </c>
@@ -9136,7 +9142,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>406</v>
       </c>
@@ -9144,7 +9150,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>407</v>
       </c>
@@ -9152,7 +9158,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>410</v>
       </c>
@@ -9160,7 +9166,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>411</v>
       </c>
@@ -9168,7 +9174,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>412</v>
       </c>
@@ -9176,7 +9182,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>413</v>
       </c>
@@ -9184,7 +9190,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>416</v>
       </c>
@@ -9192,7 +9198,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>419</v>
       </c>
@@ -9200,7 +9206,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>420</v>
       </c>
@@ -9208,7 +9214,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>421</v>
       </c>
@@ -9216,7 +9222,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>422</v>
       </c>
@@ -9224,7 +9230,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>423</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>424</v>
       </c>
@@ -9240,7 +9246,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>425</v>
       </c>
@@ -9248,7 +9254,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>426</v>
       </c>
@@ -9256,7 +9262,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>427</v>
       </c>
@@ -9264,7 +9270,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>428</v>
       </c>
@@ -9272,7 +9278,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>429</v>
       </c>
@@ -9280,7 +9286,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>430</v>
       </c>
@@ -9288,7 +9294,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>431</v>
       </c>
@@ -9296,7 +9302,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>432</v>
       </c>
@@ -9304,7 +9310,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>433</v>
       </c>
@@ -9312,7 +9318,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>434</v>
       </c>
@@ -9320,7 +9326,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>435</v>
       </c>
@@ -9328,7 +9334,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>436</v>
       </c>
@@ -9336,7 +9342,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>438</v>
       </c>
@@ -9344,7 +9350,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>439</v>
       </c>
@@ -9352,7 +9358,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>440</v>
       </c>
@@ -9360,7 +9366,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>443</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>450</v>
       </c>
@@ -9376,7 +9382,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>453</v>
       </c>
@@ -9384,7 +9390,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>454</v>
       </c>
@@ -9392,7 +9398,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>455</v>
       </c>
@@ -9400,7 +9406,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>456</v>
       </c>
@@ -9408,7 +9414,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>457</v>
       </c>
@@ -9416,7 +9422,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>460</v>
       </c>
@@ -9424,7 +9430,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>461</v>
       </c>
@@ -9432,7 +9438,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>470</v>
       </c>
@@ -9440,7 +9446,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>471</v>
       </c>
@@ -9448,7 +9454,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>472</v>
       </c>
@@ -9456,7 +9462,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>473</v>
       </c>
@@ -9464,7 +9470,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>474</v>
       </c>
@@ -9472,7 +9478,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>475</v>
       </c>
@@ -9480,7 +9486,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>476</v>
       </c>
@@ -9488,7 +9494,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>477</v>
       </c>
@@ -9496,7 +9502,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>480</v>
       </c>
@@ -9504,7 +9510,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>481</v>
       </c>
@@ -9512,7 +9518,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>482</v>
       </c>
@@ -9520,7 +9526,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>483</v>
       </c>
@@ -9528,7 +9534,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>484</v>
       </c>
@@ -9536,7 +9542,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>485</v>
       </c>
@@ -9544,7 +9550,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>486</v>
       </c>
@@ -9552,7 +9558,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>489</v>
       </c>
@@ -9560,7 +9566,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>490</v>
       </c>
@@ -9568,7 +9574,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>491</v>
       </c>
@@ -9576,7 +9582,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>494</v>
       </c>
@@ -9584,7 +9590,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>495</v>
       </c>
@@ -9592,7 +9598,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>496</v>
       </c>
@@ -9600,7 +9606,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>497</v>
       </c>
@@ -9608,7 +9614,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>498</v>
       </c>
@@ -9616,7 +9622,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>499</v>
       </c>
@@ -9624,7 +9630,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>500</v>
       </c>
@@ -9632,7 +9638,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>501</v>
       </c>
@@ -9640,7 +9646,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>502</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>503</v>
       </c>
@@ -9656,7 +9662,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>504</v>
       </c>
@@ -9664,7 +9670,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>505</v>
       </c>
@@ -9672,7 +9678,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>506</v>
       </c>
@@ -9680,7 +9686,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>507</v>
       </c>
@@ -9688,7 +9694,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>508</v>
       </c>
@@ -9696,7 +9702,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>511</v>
       </c>
@@ -9704,7 +9710,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>512</v>
       </c>
@@ -9712,7 +9718,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>515</v>
       </c>
